--- a/data/trans_orig/P16A20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A20-Edad-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4837</v>
+        <v>5351</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002267285736050501</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01034714043934797</v>
+        <v>0.01144621158258034</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5325</v>
+        <v>5348</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001102311983822252</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005537636150347744</v>
+        <v>0.005561989466493365</v>
       </c>
     </row>
     <row r="5">
@@ -820,7 +820,7 @@
         <v>466429</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>462652</v>
+        <v>462138</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>467489</v>
@@ -829,7 +829,7 @@
         <v>0.9977327142639495</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9896528595606525</v>
+        <v>0.9885537884174197</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>960493</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>956228</v>
+        <v>956205</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>961553</v>
@@ -850,7 +850,7 @@
         <v>0.9988976880161777</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9944623638496523</v>
+        <v>0.9944380105335066</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -945,19 +945,19 @@
         <v>5047</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1942</v>
+        <v>1997</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10975</v>
+        <v>12025</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006862167885147269</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002639897374137817</v>
+        <v>0.002715252680966028</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01492220142021622</v>
+        <v>0.01634902345580906</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -966,19 +966,19 @@
         <v>3001</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8206</v>
+        <v>8094</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004798255268995379</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001486758812177146</v>
+        <v>0.00149309869193478</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01311893434541439</v>
+        <v>0.0129406226976908</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -987,19 +987,19 @@
         <v>8048</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3015</v>
+        <v>3932</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15043</v>
+        <v>15551</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005913614430784569</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002215658435327195</v>
+        <v>0.002889389079913954</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01105296574653773</v>
+        <v>0.01142605856997174</v>
       </c>
     </row>
     <row r="8">
@@ -1016,19 +1016,19 @@
         <v>730442</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>724514</v>
+        <v>723464</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>733547</v>
+        <v>733492</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9931378321148527</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9850777985797837</v>
+        <v>0.983650976544191</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9973601026258622</v>
+        <v>0.997284747319034</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>588</v>
@@ -1037,19 +1037,19 @@
         <v>622493</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>617288</v>
+        <v>617400</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>624564</v>
+        <v>624560</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9952017447310046</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9868810656545853</v>
+        <v>0.9870593773023084</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9985132411878228</v>
+        <v>0.9985069013080652</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1286</v>
@@ -1058,19 +1058,19 @@
         <v>1352934</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1345939</v>
+        <v>1345431</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1357967</v>
+        <v>1357050</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9940863855692155</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9889470342534622</v>
+        <v>0.9885739414300272</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9977843415646728</v>
+        <v>0.997110610920086</v>
       </c>
     </row>
     <row r="9">
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5527</v>
+        <v>6484</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001706921790192609</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.00866834041494356</v>
+        <v>0.01016816126463706</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6314</v>
+        <v>7962</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00300597700692331</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009154372546037334</v>
+        <v>0.01154283255311985</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1204,19 +1204,19 @@
         <v>3162</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9029</v>
+        <v>8503</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002381940734085508</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0007521200282922071</v>
+        <v>0.0007483902829534344</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006801880982739806</v>
+        <v>0.006405618112809172</v>
       </c>
     </row>
     <row r="11">
@@ -1233,7 +1233,7 @@
         <v>636561</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>632122</v>
+        <v>631165</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>637649</v>
@@ -1242,7 +1242,7 @@
         <v>0.9982930782098074</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9913316595850562</v>
+        <v>0.9898318387353626</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>687671</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>683430</v>
+        <v>681782</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>689744</v>
@@ -1263,7 +1263,7 @@
         <v>0.9969940229930767</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9908456274539627</v>
+        <v>0.9884571674468794</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1275,19 +1275,19 @@
         <v>1324232</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1318365</v>
+        <v>1318891</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1326396</v>
+        <v>1326401</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9976180592659145</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.993198119017259</v>
+        <v>0.9935943818871908</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9992478799717077</v>
+        <v>0.9992516097170466</v>
       </c>
     </row>
     <row r="12">
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6667</v>
+        <v>6171</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00384276073929959</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01284161898618996</v>
+        <v>0.01188769572893089</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1400,19 +1400,19 @@
         <v>5133</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11620</v>
+        <v>11080</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009954756478898496</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003785530931744411</v>
+        <v>0.003788019004774058</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02253498324208969</v>
+        <v>0.02148748351051992</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1421,19 +1421,19 @@
         <v>7128</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3044</v>
+        <v>2921</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14462</v>
+        <v>14100</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006888407287751875</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002941769907491515</v>
+        <v>0.002822785542569061</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01397597863789791</v>
+        <v>0.0136257092275204</v>
       </c>
     </row>
     <row r="14">
@@ -1450,7 +1450,7 @@
         <v>517152</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>512480</v>
+        <v>512976</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>519147</v>
@@ -1459,7 +1459,7 @@
         <v>0.9961572392607004</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9871583810138116</v>
+        <v>0.9881123042710693</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1471,19 +1471,19 @@
         <v>510509</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>504022</v>
+        <v>504562</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>513690</v>
+        <v>513689</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9900452435211015</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9774650167579101</v>
+        <v>0.9785125164894801</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9962144690682556</v>
+        <v>0.996211980995226</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>979</v>
@@ -1492,19 +1492,19 @@
         <v>1027661</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1020327</v>
+        <v>1020689</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1031745</v>
+        <v>1031868</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9931115927122481</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9860240213621021</v>
+        <v>0.9863742907724795</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9970582300925085</v>
+        <v>0.9971772144574309</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>2878</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7928</v>
+        <v>8439</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007441565132007575</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002106622402813292</v>
+        <v>0.002123890904090398</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02050046489744554</v>
+        <v>0.02182152605364575</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1617,19 +1617,19 @@
         <v>4773</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10357</v>
+        <v>9838</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01181491356336449</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004396393225763605</v>
+        <v>0.004402241908084263</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0256359203100957</v>
+        <v>0.02435122719824855</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1638,19 +1638,19 @@
         <v>7651</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3600</v>
+        <v>3671</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14451</v>
+        <v>14133</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009676016066160264</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004552561601176571</v>
+        <v>0.004642658786780527</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01827630074134845</v>
+        <v>0.01787409663945974</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>383832</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>378782</v>
+        <v>378271</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>385895</v>
+        <v>385889</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9925584348679924</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9794995351025542</v>
+        <v>0.9781784739463546</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9978933775971868</v>
+        <v>0.9978761090959096</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>391</v>
@@ -1688,19 +1688,19 @@
         <v>399213</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>393629</v>
+        <v>394148</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>402210</v>
+        <v>402208</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9881850864366355</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9743640796899045</v>
+        <v>0.9756487728017518</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9956036067742364</v>
+        <v>0.9955977580919158</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>780</v>
@@ -1709,19 +1709,19 @@
         <v>783045</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>776245</v>
+        <v>776563</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>787096</v>
+        <v>787025</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9903239839338397</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9817236992586517</v>
+        <v>0.9821259033605403</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9954474383988234</v>
+        <v>0.9953573412132195</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>2509</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6566</v>
+        <v>6748</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008574914967323917</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002722595901136157</v>
+        <v>0.002721376460000952</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02244146708900158</v>
+        <v>0.02306297005175062</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1834,19 +1834,19 @@
         <v>2722</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8122</v>
+        <v>7288</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.007937383358822726</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00260565633275484</v>
+        <v>0.002613946782630921</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02368240872128776</v>
+        <v>0.02125085693280215</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1855,19 +1855,19 @@
         <v>5231</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1836</v>
+        <v>1831</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11084</v>
+        <v>10517</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.008230893856534263</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002889083293398712</v>
+        <v>0.002881889334362041</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0174416428181926</v>
+        <v>0.01654873362659743</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>290074</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>286017</v>
+        <v>285835</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>291786</v>
+        <v>291787</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9914250850326761</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9775585329109984</v>
+        <v>0.9769370299482488</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9972774040988639</v>
+        <v>0.9972786235399991</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>368</v>
@@ -1905,19 +1905,19 @@
         <v>340212</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>334812</v>
+        <v>335646</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>342040</v>
+        <v>342038</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9920626166411772</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9763175912787122</v>
+        <v>0.9787491430671978</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9973943436672452</v>
+        <v>0.9973860532173691</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>668</v>
@@ -1926,19 +1926,19 @@
         <v>630286</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>624433</v>
+        <v>625000</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>633681</v>
+        <v>633686</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9917691061434657</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9825583571818074</v>
+        <v>0.9834512663734025</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9971109167066013</v>
+        <v>0.997118110665638</v>
       </c>
     </row>
     <row r="21">
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02245953783878061</v>
+        <v>0.0224590006644945</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4734</v>
+        <v>4749</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001738134758672902</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.008704959013031791</v>
+        <v>0.008733863497666854</v>
       </c>
     </row>
     <row r="23">
@@ -2102,7 +2102,7 @@
         <v>0.9954966242790707</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9775404621612194</v>
+        <v>0.9775409993355054</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2127,7 +2127,7 @@
         <v>542846</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>539057</v>
+        <v>539042</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>543791</v>
@@ -2136,7 +2136,7 @@
         <v>0.9982618652413271</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9912950409869682</v>
+        <v>0.9912661365023331</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -2231,19 +2231,19 @@
         <v>14462</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8635</v>
+        <v>8564</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23909</v>
+        <v>23331</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004415232919933159</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0026362524286757</v>
+        <v>0.002614435593765683</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.007299205830375028</v>
+        <v>0.007122860897009029</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -2252,19 +2252,19 @@
         <v>18763</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11460</v>
+        <v>11160</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28621</v>
+        <v>28268</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.005552417681264333</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003391280361682762</v>
+        <v>0.003302504445240993</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.008469660939762112</v>
+        <v>0.008365341556381946</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>34</v>
@@ -2273,19 +2273,19 @@
         <v>33225</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22895</v>
+        <v>23326</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>45458</v>
+        <v>45914</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.004992683250538844</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003440422952687366</v>
+        <v>0.003505247300488199</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.006830873441746001</v>
+        <v>0.006899424838783807</v>
       </c>
     </row>
     <row r="26">
@@ -2302,19 +2302,19 @@
         <v>3261063</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3251616</v>
+        <v>3252194</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3266890</v>
+        <v>3266961</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9955847670800668</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9927007941696251</v>
+        <v>0.9928771391029909</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9973637475713243</v>
+        <v>0.9973855644062343</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3278</v>
@@ -2323,19 +2323,19 @@
         <v>3360434</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3350576</v>
+        <v>3350929</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3367737</v>
+        <v>3368037</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9944475823187356</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9915303390602378</v>
+        <v>0.9916346584436181</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9966087196383171</v>
+        <v>0.9966974955547591</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6476</v>
@@ -2344,19 +2344,19 @@
         <v>6621497</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6609264</v>
+        <v>6608808</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6631827</v>
+        <v>6631396</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9950073167494612</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.993169126558254</v>
+        <v>0.9931005751612162</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9965595770473126</v>
+        <v>0.9964947526995118</v>
       </c>
     </row>
     <row r="27">
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4697</v>
+        <v>5492</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002077104938587834</v>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01036729825297898</v>
+        <v>0.01212005256377606</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2712,19 +2712,19 @@
         <v>4148</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10336</v>
+        <v>10376</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009661665943761163</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002450756858846571</v>
+        <v>0.002475805131941876</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02407381411746933</v>
+        <v>0.02416800112433843</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -2733,19 +2733,19 @@
         <v>5089</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1995</v>
+        <v>2055</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13030</v>
+        <v>12004</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005767251457620816</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002261092277598911</v>
+        <v>0.002329000681889637</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01476593093785273</v>
+        <v>0.01360316213811873</v>
       </c>
     </row>
     <row r="5">
@@ -2762,7 +2762,7 @@
         <v>452164</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>448408</v>
+        <v>447613</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>453105</v>
@@ -2771,7 +2771,7 @@
         <v>0.9979228950614122</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9896327017470211</v>
+        <v>0.9878799474362244</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2783,19 +2783,19 @@
         <v>425191</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>419003</v>
+        <v>418963</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>428287</v>
+        <v>428276</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9903383340562388</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9759261858825307</v>
+        <v>0.9758319988756617</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9975492431411535</v>
+        <v>0.9975241948680581</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>860</v>
@@ -2804,19 +2804,19 @@
         <v>877356</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>869415</v>
+        <v>870441</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>880450</v>
+        <v>880390</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9942327485423792</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9852340690621473</v>
+        <v>0.9863968378618814</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9977389077224011</v>
+        <v>0.9976709993181105</v>
       </c>
     </row>
     <row r="6">
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6489</v>
+        <v>6525</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002726060578144869</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009456404064950033</v>
+        <v>0.009508771267940931</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -2929,19 +2929,19 @@
         <v>13052</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7912</v>
+        <v>7529</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22705</v>
+        <v>22798</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02142470531898799</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01298735769329082</v>
+        <v>0.01235933296519201</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03726974500716818</v>
+        <v>0.03742180752008104</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -2950,19 +2950,19 @@
         <v>14923</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8698</v>
+        <v>8890</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24539</v>
+        <v>24620</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0115194980890763</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006713908181974058</v>
+        <v>0.006862117781009768</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0189424869897891</v>
+        <v>0.01900533552829247</v>
       </c>
     </row>
     <row r="8">
@@ -2979,7 +2979,7 @@
         <v>684367</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>679749</v>
+        <v>679713</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>686238</v>
@@ -2988,7 +2988,7 @@
         <v>0.9972739394218552</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.99054359593505</v>
+        <v>0.9904912287320594</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -3000,19 +3000,19 @@
         <v>596162</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>586509</v>
+        <v>586416</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>601302</v>
+        <v>601685</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.978575294681012</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9627302549928319</v>
+        <v>0.9625781924799198</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9870126423067092</v>
+        <v>0.9876406670348099</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1221</v>
@@ -3021,19 +3021,19 @@
         <v>1280528</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1270912</v>
+        <v>1270831</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1286753</v>
+        <v>1286561</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9884805019109237</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9810575130102109</v>
+        <v>0.9809946644717075</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.993286091818026</v>
+        <v>0.9931378822189902</v>
       </c>
     </row>
     <row r="9">
@@ -3138,19 +3138,19 @@
         <v>20297</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12244</v>
+        <v>12932</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32048</v>
+        <v>30460</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02871166344004746</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0173197901808243</v>
+        <v>0.01829295015520977</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04533458781276582</v>
+        <v>0.04308882168806979</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -3159,19 +3159,19 @@
         <v>20297</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12231</v>
+        <v>12112</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31474</v>
+        <v>30761</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01463389392127726</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008818740289794999</v>
+        <v>0.008732880923091156</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02269229057609254</v>
+        <v>0.02217867092434073</v>
       </c>
     </row>
     <row r="11">
@@ -3201,19 +3201,19 @@
         <v>686621</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>674870</v>
+        <v>676458</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>694674</v>
+        <v>693986</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9712883365599525</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9546654121872334</v>
+        <v>0.9569111783119302</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9826802098191757</v>
+        <v>0.9817070498447902</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1294</v>
@@ -3222,19 +3222,19 @@
         <v>1366675</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1355498</v>
+        <v>1356211</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1374741</v>
+        <v>1374860</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9853661060787228</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9773077094239074</v>
+        <v>0.9778213290756593</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.991181259710205</v>
+        <v>0.9912671190769088</v>
       </c>
     </row>
     <row r="12">
@@ -3326,19 +3326,19 @@
         <v>2934</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>951</v>
+        <v>970</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7808</v>
+        <v>9093</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004773946530503113</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001546494734526932</v>
+        <v>0.00157830692842902</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0127037740979942</v>
+        <v>0.0147948373262102</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -3347,19 +3347,19 @@
         <v>37719</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26060</v>
+        <v>26558</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50546</v>
+        <v>52376</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06141031033060004</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04242934102297031</v>
+        <v>0.0432386142608626</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08229520746407311</v>
+        <v>0.08527323442159336</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -3368,19 +3368,19 @@
         <v>40653</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29422</v>
+        <v>28478</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56784</v>
+        <v>55171</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03308271390723126</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02394293607491954</v>
+        <v>0.02317468642229554</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04620971284260873</v>
+        <v>0.04489698072825666</v>
       </c>
     </row>
     <row r="14">
@@ -3397,19 +3397,19 @@
         <v>611683</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>606809</v>
+        <v>605524</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>613666</v>
+        <v>613647</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9952260534694969</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9872962259020059</v>
+        <v>0.9852051626737907</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9984535052654731</v>
+        <v>0.998421693071571</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>504</v>
@@ -3418,19 +3418,19 @@
         <v>576489</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>563662</v>
+        <v>561832</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>588148</v>
+        <v>587650</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9385896896693999</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9177047925359268</v>
+        <v>0.9147267655784068</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9575706589770296</v>
+        <v>0.9567613857391375</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1049</v>
@@ -3439,19 +3439,19 @@
         <v>1188172</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1172041</v>
+        <v>1173654</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1199403</v>
+        <v>1200347</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9669172860927687</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9537902871573913</v>
+        <v>0.9551030192717433</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9760570639250804</v>
+        <v>0.9768253135777045</v>
       </c>
     </row>
     <row r="15">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8401</v>
+        <v>7438</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004901826926505807</v>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01961370532987319</v>
+        <v>0.01736342581103877</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -3564,19 +3564,19 @@
         <v>32426</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21880</v>
+        <v>22762</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46248</v>
+        <v>45428</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07241163131016895</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04886104232905975</v>
+        <v>0.05083036405728856</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1032789490965289</v>
+        <v>0.1014461901033372</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -3585,19 +3585,19 @@
         <v>34526</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24331</v>
+        <v>23759</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>49158</v>
+        <v>48361</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03940631727340494</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02777059032295217</v>
+        <v>0.02711817607961605</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05610710975834672</v>
+        <v>0.0551979781910691</v>
       </c>
     </row>
     <row r="17">
@@ -3614,7 +3614,7 @@
         <v>426244</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>419943</v>
+        <v>420906</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>428344</v>
@@ -3623,7 +3623,7 @@
         <v>0.9950981730734942</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9803862946701268</v>
+        <v>0.9826365741889611</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3635,19 +3635,19 @@
         <v>415374</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>401552</v>
+        <v>402372</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>425920</v>
+        <v>425038</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9275883686898311</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.896721050903471</v>
+        <v>0.8985538098966627</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.95113895767094</v>
+        <v>0.9491696359427112</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>767</v>
@@ -3656,19 +3656,19 @@
         <v>841618</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>826986</v>
+        <v>827783</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>851813</v>
+        <v>852385</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9605936827265951</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9438928902416531</v>
+        <v>0.9448020218089308</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9722294096770479</v>
+        <v>0.9728818239203839</v>
       </c>
     </row>
     <row r="18">
@@ -3773,19 +3773,19 @@
         <v>9918</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4905</v>
+        <v>5003</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17016</v>
+        <v>17930</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02809045110937628</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0138935408691286</v>
+        <v>0.01417165367329431</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.048194661654267</v>
+        <v>0.05078507518415252</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -3794,19 +3794,19 @@
         <v>9918</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4872</v>
+        <v>4919</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17706</v>
+        <v>16974</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01496215121188643</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007350090320476347</v>
+        <v>0.00742145296187067</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0267121208059558</v>
+        <v>0.02560842416911297</v>
       </c>
     </row>
     <row r="20">
@@ -3836,19 +3836,19 @@
         <v>343141</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>336043</v>
+        <v>335129</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>348154</v>
+        <v>348056</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9719095488906238</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9518053383457332</v>
+        <v>0.9492149248158476</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9861064591308715</v>
+        <v>0.9858283463267057</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>615</v>
@@ -3857,19 +3857,19 @@
         <v>652927</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>645139</v>
+        <v>645871</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>657973</v>
+        <v>657926</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9850378487881136</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9732878791940441</v>
+        <v>0.974391575830887</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9926499096795236</v>
+        <v>0.9925785470381293</v>
       </c>
     </row>
     <row r="21">
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5362</v>
+        <v>5313</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004263284644182888</v>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02153141417025331</v>
+        <v>0.02133553654716537</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -3982,19 +3982,19 @@
         <v>4590</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10758</v>
+        <v>11318</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01186886434210464</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003062525332665081</v>
+        <v>0.003049275062786619</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02781730744812992</v>
+        <v>0.02926387402337355</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -4003,19 +4003,19 @@
         <v>5652</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2154</v>
+        <v>2102</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12703</v>
+        <v>12719</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008889789467507821</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003388585355285655</v>
+        <v>0.003306721555082312</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0199802669696431</v>
+        <v>0.02000547370281234</v>
       </c>
     </row>
     <row r="23">
@@ -4032,7 +4032,7 @@
         <v>247974</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>243674</v>
+        <v>243723</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>249036</v>
@@ -4041,7 +4041,7 @@
         <v>0.9957367153558171</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9784685858297467</v>
+        <v>0.9786644634528346</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -4053,19 +4053,19 @@
         <v>382163</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>375995</v>
+        <v>375435</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>385569</v>
+        <v>385574</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9881311356578953</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9721826925518701</v>
+        <v>0.9707361259766271</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.996937474667335</v>
+        <v>0.9969507249372134</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>564</v>
@@ -4074,19 +4074,19 @@
         <v>630137</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>623086</v>
+        <v>623070</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>633635</v>
+        <v>633687</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9911102105324922</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9800197330303572</v>
+        <v>0.9799945262971881</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9966114146447144</v>
+        <v>0.9966932784449177</v>
       </c>
     </row>
     <row r="24">
@@ -4178,19 +4178,19 @@
         <v>8907</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4048</v>
+        <v>3930</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16299</v>
+        <v>15865</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002603604437807695</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001183357458395933</v>
+        <v>0.001148836522976584</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.004764239899436434</v>
+        <v>0.004637166010440964</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>112</v>
@@ -4199,19 +4199,19 @@
         <v>122150</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>100666</v>
+        <v>99603</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>148607</v>
+        <v>144912</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03443463912454823</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02837819079844674</v>
+        <v>0.02807869117532977</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04189306408618267</v>
+        <v>0.04085140210407929</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>121</v>
@@ -4220,19 +4220,19 @@
         <v>131057</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>109135</v>
+        <v>109855</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>156855</v>
+        <v>158235</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01880715428479564</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01566128265475742</v>
+        <v>0.0157646202844638</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02250917192163862</v>
+        <v>0.02270727511248639</v>
       </c>
     </row>
     <row r="26">
@@ -4249,19 +4249,19 @@
         <v>3412272</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3404880</v>
+        <v>3405314</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3417131</v>
+        <v>3417249</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9973963955621923</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9952357601005636</v>
+        <v>0.995362833989559</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9988166425416041</v>
+        <v>0.9988511634770234</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3176</v>
@@ -4270,19 +4270,19 @@
         <v>3425142</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3398685</v>
+        <v>3402380</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3446626</v>
+        <v>3447689</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9655653608754518</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9581069359138173</v>
+        <v>0.9591485978959207</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9716218092015533</v>
+        <v>0.97192130882467</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6370</v>
@@ -4291,19 +4291,19 @@
         <v>6837414</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6811616</v>
+        <v>6810236</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6859336</v>
+        <v>6858616</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9811928457152044</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9774908280783616</v>
+        <v>0.9772927248875135</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9843387173452426</v>
+        <v>0.9842353797155362</v>
       </c>
     </row>
     <row r="27">
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5873</v>
+        <v>5336</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002513574379118273</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0140002084534616</v>
+        <v>0.01272054000509367</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4659,19 +4659,19 @@
         <v>3854</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9582</v>
+        <v>9436</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009737627353688421</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002478433036057147</v>
+        <v>0.002424917215543133</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02421128040680468</v>
+        <v>0.02384357740811442</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4680,19 +4680,19 @@
         <v>4908</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1937</v>
+        <v>1888</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11581</v>
+        <v>10820</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006020556684690793</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002376433891907444</v>
+        <v>0.002316024297430495</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01420566855670677</v>
+        <v>0.01327262919380033</v>
       </c>
     </row>
     <row r="5">
@@ -4709,7 +4709,7 @@
         <v>418409</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>413590</v>
+        <v>414127</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -4718,7 +4718,7 @@
         <v>0.9974864256208817</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9859997915465379</v>
+        <v>0.9872794599949063</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4730,19 +4730,19 @@
         <v>391901</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>386173</v>
+        <v>386319</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>394774</v>
+        <v>394795</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9902623726463116</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9757887195931954</v>
+        <v>0.9761564225918855</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9975215669639429</v>
+        <v>0.9975750827844568</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>792</v>
@@ -4751,19 +4751,19 @@
         <v>810310</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>803637</v>
+        <v>804398</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>813281</v>
+        <v>813330</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9939794433153092</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9857943314432931</v>
+        <v>0.9867273708061997</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9976235661080926</v>
+        <v>0.9976839757025695</v>
       </c>
     </row>
     <row r="6">
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7404</v>
+        <v>6701</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003312174744409793</v>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01253781469173461</v>
+        <v>0.01134796566819263</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -4876,19 +4876,19 @@
         <v>12777</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7253</v>
+        <v>6672</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21622</v>
+        <v>21460</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02267254581243381</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01287090438543912</v>
+        <v>0.01183882183604271</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03836750712100123</v>
+        <v>0.03808015610618523</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -4897,19 +4897,19 @@
         <v>14733</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8243</v>
+        <v>9121</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22969</v>
+        <v>23098</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01276627975179475</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007142843366092146</v>
+        <v>0.007903774333318521</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0199030847387109</v>
+        <v>0.02001524345141478</v>
       </c>
     </row>
     <row r="8">
@@ -4926,7 +4926,7 @@
         <v>588540</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>583092</v>
+        <v>583795</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -4935,7 +4935,7 @@
         <v>0.9966878252555902</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9874621853082644</v>
+        <v>0.9886520343318064</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4947,19 +4947,19 @@
         <v>550767</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>541922</v>
+        <v>542084</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>556291</v>
+        <v>556872</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9773274541875662</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.961632492879</v>
+        <v>0.9619198438938151</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9871290956145612</v>
+        <v>0.9881611781639573</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1130</v>
@@ -4968,19 +4968,19 @@
         <v>1139307</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1131071</v>
+        <v>1130942</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1145797</v>
+        <v>1144919</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9872337202482052</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9800969152612889</v>
+        <v>0.9799847565485853</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9928571566339078</v>
+        <v>0.9920962256666817</v>
       </c>
     </row>
     <row r="9">
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5649</v>
+        <v>5551</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002692634120345157</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008443177710287788</v>
+        <v>0.008295687251724276</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -5093,19 +5093,19 @@
         <v>33369</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22982</v>
+        <v>23087</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46250</v>
+        <v>46360</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0504535672561807</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03474892954134933</v>
+        <v>0.03490745850646652</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06992873295003829</v>
+        <v>0.0700958917475776</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -5114,19 +5114,19 @@
         <v>35171</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24084</v>
+        <v>25217</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46579</v>
+        <v>48643</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02643470867742772</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01810185922472641</v>
+        <v>0.0189533788964384</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03500944388361051</v>
+        <v>0.03656059269459406</v>
       </c>
     </row>
     <row r="11">
@@ -5143,7 +5143,7 @@
         <v>667295</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>663448</v>
+        <v>663546</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>669097</v>
@@ -5152,7 +5152,7 @@
         <v>0.9973073658796549</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9915568222897143</v>
+        <v>0.9917043127482756</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5164,19 +5164,19 @@
         <v>628017</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>615136</v>
+        <v>615026</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>638404</v>
+        <v>638299</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9495464327438193</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9300712670499618</v>
+        <v>0.9299041082524225</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9652510704586511</v>
+        <v>0.9650925414935335</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1269</v>
@@ -5185,19 +5185,19 @@
         <v>1295312</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1283904</v>
+        <v>1281840</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1306399</v>
+        <v>1305266</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9735652913225723</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9649905561163894</v>
+        <v>0.963439407305406</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9818981407752736</v>
+        <v>0.9810466211035617</v>
       </c>
     </row>
     <row r="12">
@@ -5289,19 +5289,19 @@
         <v>6455</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2207</v>
+        <v>2272</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12907</v>
+        <v>14783</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009991092950029593</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003415660318030531</v>
+        <v>0.003517394028220299</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01997882777753864</v>
+        <v>0.02288277373645459</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -5310,19 +5310,19 @@
         <v>45399</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33124</v>
+        <v>33479</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61856</v>
+        <v>60945</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06994401070836762</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05103172961058077</v>
+        <v>0.05157903469351587</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09529870411981226</v>
+        <v>0.09389424509338055</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -5331,19 +5331,19 @@
         <v>51854</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38148</v>
+        <v>38545</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67733</v>
+        <v>67768</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0400376515577754</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02945535566413676</v>
+        <v>0.02976167761501724</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05229862851532295</v>
+        <v>0.05232526972746748</v>
       </c>
     </row>
     <row r="14">
@@ -5360,19 +5360,19 @@
         <v>639593</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>633141</v>
+        <v>631265</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>643841</v>
+        <v>643776</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9900089070499704</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9800211722224619</v>
+        <v>0.9771172262635454</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9965843396819695</v>
+        <v>0.9964826059717796</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>561</v>
@@ -5381,19 +5381,19 @@
         <v>603678</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>587221</v>
+        <v>588132</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>615953</v>
+        <v>615598</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9300559892916324</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9047012958801878</v>
+        <v>0.9061057549066194</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.948968270389419</v>
+        <v>0.9484209653064842</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1137</v>
@@ -5402,19 +5402,19 @@
         <v>1243271</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1227392</v>
+        <v>1227357</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1256977</v>
+        <v>1256580</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9599623484422246</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9477013714846769</v>
+        <v>0.9476747302725329</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.970544644335863</v>
+        <v>0.9702383223849829</v>
       </c>
     </row>
     <row r="15">
@@ -5509,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7318</v>
+        <v>7343</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004353407706892333</v>
@@ -5518,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01531128746250092</v>
+        <v>0.01536502959159832</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -5527,19 +5527,19 @@
         <v>31384</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21812</v>
+        <v>20485</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44979</v>
+        <v>43573</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06316575517998817</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04390154314430646</v>
+        <v>0.04123051803800955</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09052926126069889</v>
+        <v>0.08769895240715121</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -5548,19 +5548,19 @@
         <v>33464</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22727</v>
+        <v>23037</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47712</v>
+        <v>47112</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03433068034277611</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02331543625583389</v>
+        <v>0.02363365451540854</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04894702053597269</v>
+        <v>0.04833105945554977</v>
       </c>
     </row>
     <row r="17">
@@ -5577,7 +5577,7 @@
         <v>475837</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>470600</v>
+        <v>470575</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>477918</v>
@@ -5586,7 +5586,7 @@
         <v>0.9956465922931077</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9846887125374991</v>
+        <v>0.9846349704084016</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -5598,19 +5598,19 @@
         <v>465465</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>451870</v>
+        <v>453276</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>475037</v>
+        <v>476364</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9368342448200119</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9094707387393007</v>
+        <v>0.912301047592849</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9560984568556932</v>
+        <v>0.9587694819619907</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>827</v>
@@ -5619,19 +5619,19 @@
         <v>941303</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>927055</v>
+        <v>927655</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>952040</v>
+        <v>951730</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9656693196572239</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9510529794640272</v>
+        <v>0.9516689405444501</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9766845637441661</v>
+        <v>0.9763663454845914</v>
       </c>
     </row>
     <row r="18">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4674</v>
+        <v>3751</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00276450646958509</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01398056746498501</v>
+        <v>0.01121951363804148</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -5744,19 +5744,19 @@
         <v>15016</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8292</v>
+        <v>8298</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23946</v>
+        <v>25925</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03975044656187155</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02194977781539858</v>
+        <v>0.02196630485049246</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06338815497611444</v>
+        <v>0.06862814626535449</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -5765,19 +5765,19 @@
         <v>15940</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9224</v>
+        <v>9638</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25037</v>
+        <v>26296</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02238540203511875</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01295269885883002</v>
+        <v>0.01353505594109085</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03516042228009104</v>
+        <v>0.03692794006597231</v>
       </c>
     </row>
     <row r="20">
@@ -5794,7 +5794,7 @@
         <v>333406</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>329656</v>
+        <v>330579</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>334330</v>
@@ -5803,7 +5803,7 @@
         <v>0.997235493530415</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.986019432535015</v>
+        <v>0.9887804863619585</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5815,19 +5815,19 @@
         <v>362746</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>353816</v>
+        <v>351837</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>369470</v>
+        <v>369464</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9602495534381285</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9366118450238857</v>
+        <v>0.9313718537346456</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9780502221846015</v>
+        <v>0.9780336951495076</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>664</v>
@@ -5836,19 +5836,19 @@
         <v>696152</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>687055</v>
+        <v>685796</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>702868</v>
+        <v>702454</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9776145979648813</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.964839577719909</v>
+        <v>0.9630720599340277</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9870473011411699</v>
+        <v>0.9864649440589092</v>
       </c>
     </row>
     <row r="21">
@@ -5953,19 +5953,19 @@
         <v>13842</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7796</v>
+        <v>7371</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24637</v>
+        <v>26705</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03459125759621647</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01948224407428083</v>
+        <v>0.01841911372740272</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06156622849363995</v>
+        <v>0.06673399371100416</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -5974,19 +5974,19 @@
         <v>13842</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6462</v>
+        <v>6687</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25008</v>
+        <v>23717</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02106367016433471</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009833718267038756</v>
+        <v>0.01017518980604896</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03805455967025517</v>
+        <v>0.03608981428564539</v>
       </c>
     </row>
     <row r="23">
@@ -6016,19 +6016,19 @@
         <v>386327</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>375532</v>
+        <v>373464</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>392373</v>
+        <v>392798</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9654087424037835</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.93843377150636</v>
+        <v>0.9332660062889951</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9805177559257191</v>
+        <v>0.9815808862725972</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>593</v>
@@ -6037,19 +6037,19 @@
         <v>643325</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>632159</v>
+        <v>633450</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>650705</v>
+        <v>650480</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9789363298356653</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9619454403297448</v>
+        <v>0.9639101857143544</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9901662817329613</v>
+        <v>0.989824810193951</v>
       </c>
     </row>
     <row r="24">
@@ -6141,19 +6141,19 @@
         <v>14271</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8343</v>
+        <v>8322</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23125</v>
+        <v>23909</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004204448015799813</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002457876952140602</v>
+        <v>0.002451862050430793</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.006812800104598631</v>
+        <v>0.007043768335075613</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>143</v>
@@ -6162,19 +6162,19 @@
         <v>155641</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>131958</v>
+        <v>132144</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>180873</v>
+        <v>181738</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04391016616018439</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03722838677037966</v>
+        <v>0.03728095033833351</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05102867192285026</v>
+        <v>0.05127260756408346</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>157</v>
@@ -6183,19 +6183,19 @@
         <v>169913</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>144743</v>
+        <v>145440</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>197827</v>
+        <v>198576</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02448702030884812</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02085968541148665</v>
+        <v>0.02096009120129991</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02850994058823742</v>
+        <v>0.02861783367497479</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>3380079</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3371225</v>
+        <v>3370441</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3386007</v>
+        <v>3386028</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9957955519842002</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9931871998954014</v>
+        <v>0.9929562316649245</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9975421230478594</v>
+        <v>0.9975481379495693</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3195</v>
@@ -6233,19 +6233,19 @@
         <v>3388901</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3363669</v>
+        <v>3362804</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3412584</v>
+        <v>3412398</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9560898338398156</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9489713280771498</v>
+        <v>0.9487273924359169</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9627716132296203</v>
+        <v>0.9627190496616669</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6412</v>
@@ -6254,19 +6254,19 @@
         <v>6768979</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6741065</v>
+        <v>6740316</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6794149</v>
+        <v>6793452</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9755129796911519</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9714900594117626</v>
+        <v>0.9713821663250252</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9791403145885134</v>
+        <v>0.9790399087987001</v>
       </c>
     </row>
     <row r="27">
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18368</v>
+        <v>17112</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01257036258128231</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04504343811086833</v>
+        <v>0.04196280170357686</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -6622,19 +6622,19 @@
         <v>13220</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5587</v>
+        <v>5326</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26795</v>
+        <v>26623</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03646657538657965</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01541162081892202</v>
+        <v>0.01469183779769297</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07391344516192756</v>
+        <v>0.07344170006845227</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -6643,19 +6643,19 @@
         <v>18346</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9194</v>
+        <v>8876</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37407</v>
+        <v>35307</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02381611961926543</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01193504415451372</v>
+        <v>0.01152305722259158</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04856092745889763</v>
+        <v>0.0458355432799707</v>
       </c>
     </row>
     <row r="5">
@@ -6672,7 +6672,7 @@
         <v>402667</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>389425</v>
+        <v>390681</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>407793</v>
@@ -6681,7 +6681,7 @@
         <v>0.9874296374187178</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9549565618891318</v>
+        <v>0.9580371982964233</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6693,19 +6693,19 @@
         <v>349292</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>335717</v>
+        <v>335889</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>356925</v>
+        <v>357186</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9635334246134203</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.926086554838073</v>
+        <v>0.9265582999315478</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9845883791810779</v>
+        <v>0.985308162202307</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>370</v>
@@ -6714,19 +6714,19 @@
         <v>751959</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>732898</v>
+        <v>734998</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>761111</v>
+        <v>761429</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9761838803807348</v>
+        <v>0.9761838803807344</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9514390725411027</v>
+        <v>0.9541644567200293</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9880649558454863</v>
+        <v>0.9884769427774085</v>
       </c>
     </row>
     <row r="6">
@@ -6821,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6750</v>
+        <v>6877</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002850796969573816</v>
@@ -6830,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01415497614161128</v>
+        <v>0.01442092723606659</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -6839,19 +6839,19 @@
         <v>17633</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10597</v>
+        <v>11444</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27737</v>
+        <v>28341</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03519009390429805</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02114848463452677</v>
+        <v>0.02283831069259655</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05535412004951878</v>
+        <v>0.05655924149048945</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -6860,19 +6860,19 @@
         <v>18993</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11183</v>
+        <v>12075</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30726</v>
+        <v>29801</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01942044557208734</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01143534518815204</v>
+        <v>0.01234727977017436</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0314183679249408</v>
+        <v>0.03047214729838446</v>
       </c>
     </row>
     <row r="8">
@@ -6889,7 +6889,7 @@
         <v>475530</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>470140</v>
+        <v>470013</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>476890</v>
@@ -6898,7 +6898,7 @@
         <v>0.9971492030304262</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9858450238583886</v>
+        <v>0.9855790727639335</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -6910,19 +6910,19 @@
         <v>483450</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>473346</v>
+        <v>472742</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>490486</v>
+        <v>489639</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9648099060957019</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9446458799504813</v>
+        <v>0.9434407585095109</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9788515153654734</v>
+        <v>0.9771616893074034</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>744</v>
@@ -6931,19 +6931,19 @@
         <v>958980</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>947247</v>
+        <v>948172</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>966790</v>
+        <v>965898</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9805795544279127</v>
+        <v>0.9805795544279126</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9685816320750592</v>
+        <v>0.9695278527016152</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9885646548118481</v>
+        <v>0.9876527202298256</v>
       </c>
     </row>
     <row r="9">
@@ -7035,19 +7035,19 @@
         <v>4252</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1126</v>
+        <v>1095</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9889</v>
+        <v>9520</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006848165792646762</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001813781073077874</v>
+        <v>0.001763920336074262</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01592871106486318</v>
+        <v>0.0153336405582062</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -7056,19 +7056,19 @@
         <v>37273</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28876</v>
+        <v>27653</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48697</v>
+        <v>47293</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05991158949646101</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04641383997630345</v>
+        <v>0.04444770669392148</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07827347775503656</v>
+        <v>0.07601741613441093</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -7077,19 +7077,19 @@
         <v>41525</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31717</v>
+        <v>31379</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54051</v>
+        <v>54035</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03340767838727489</v>
+        <v>0.0334076783872749</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0255169680767058</v>
+        <v>0.02524474072279276</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04348502449128226</v>
+        <v>0.04347264506987002</v>
       </c>
     </row>
     <row r="11">
@@ -7106,19 +7106,19 @@
         <v>616585</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>610948</v>
+        <v>611317</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>619711</v>
+        <v>619742</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9931518342073532</v>
+        <v>0.9931518342073534</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9840712889351368</v>
+        <v>0.9846663594417937</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9981862189269222</v>
+        <v>0.9982360796639259</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>794</v>
@@ -7127,19 +7127,19 @@
         <v>584866</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>573442</v>
+        <v>574846</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>593263</v>
+        <v>594486</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9400884105035391</v>
+        <v>0.940088410503539</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9217265222449633</v>
+        <v>0.923982583865589</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9535861600236964</v>
+        <v>0.9555522933060785</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1336</v>
@@ -7148,19 +7148,19 @@
         <v>1201451</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1188925</v>
+        <v>1188941</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1211259</v>
+        <v>1211597</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.966592321612725</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9565149755087178</v>
+        <v>0.9565273549301299</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9744830319232944</v>
+        <v>0.9747552592772072</v>
       </c>
     </row>
     <row r="12">
@@ -7252,19 +7252,19 @@
         <v>10745</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5211</v>
+        <v>5388</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19005</v>
+        <v>18160</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01533620599176057</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007437674144443796</v>
+        <v>0.007690100173895537</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02712665804652502</v>
+        <v>0.02591947802883894</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>98</v>
@@ -7273,19 +7273,19 @@
         <v>62303</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51217</v>
+        <v>51057</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74555</v>
+        <v>74179</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08454890872094332</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06950485575511466</v>
+        <v>0.06928744390935643</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1011753431430598</v>
+        <v>0.1006652543407342</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>108</v>
@@ -7294,19 +7294,19 @@
         <v>73048</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60543</v>
+        <v>60010</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>87391</v>
+        <v>87140</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05081569971266803</v>
+        <v>0.05081569971266804</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04211654281198418</v>
+        <v>0.04174582143308655</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06079329713780479</v>
+        <v>0.06061884689834547</v>
       </c>
     </row>
     <row r="14">
@@ -7323,19 +7323,19 @@
         <v>689872</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>681612</v>
+        <v>682457</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>695406</v>
+        <v>695229</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9846637940082394</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.972873341953475</v>
+        <v>0.9740805219711614</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9925623258555563</v>
+        <v>0.9923098998261046</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1043</v>
@@ -7344,19 +7344,19 @@
         <v>674583</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>662331</v>
+        <v>662707</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>685669</v>
+        <v>685829</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9154510912790566</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8988246568569401</v>
+        <v>0.8993347456592659</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9304951442448853</v>
+        <v>0.9307125560906436</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1698</v>
@@ -7365,19 +7365,19 @@
         <v>1364456</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1350113</v>
+        <v>1350364</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1376961</v>
+        <v>1377494</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9491843002873318</v>
+        <v>0.949184300287332</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9392067028621952</v>
+        <v>0.9393811531016546</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9578834571880158</v>
+        <v>0.9582541785669133</v>
       </c>
     </row>
     <row r="15">
@@ -7469,19 +7469,19 @@
         <v>9744</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5367</v>
+        <v>5261</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16720</v>
+        <v>17040</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01601613002199854</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008821457627065984</v>
+        <v>0.008647234920986012</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02748349208556047</v>
+        <v>0.0280092807342423</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>130</v>
@@ -7490,19 +7490,19 @@
         <v>80871</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67737</v>
+        <v>68505</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>93962</v>
+        <v>94075</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1332920647185548</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1116443212988904</v>
+        <v>0.1129099558793657</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1548685874368139</v>
+        <v>0.1550546262904218</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>141</v>
@@ -7511,19 +7511,19 @@
         <v>90615</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>77251</v>
+        <v>77567</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>107531</v>
+        <v>105864</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07457519289057987</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06357711351071955</v>
+        <v>0.06383680779098672</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08849709743653049</v>
+        <v>0.08712477934027729</v>
       </c>
     </row>
     <row r="17">
@@ -7540,19 +7540,19 @@
         <v>598615</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>591639</v>
+        <v>591319</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>602992</v>
+        <v>603098</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9839838699780016</v>
+        <v>0.9839838699780014</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9725165079144393</v>
+        <v>0.9719907192657578</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9911785423729339</v>
+        <v>0.991352765079014</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>869</v>
@@ -7561,19 +7561,19 @@
         <v>525853</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>512762</v>
+        <v>512649</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>538987</v>
+        <v>538219</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8667079352814453</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8451314125631862</v>
+        <v>0.8449453737095782</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8883556787011099</v>
+        <v>0.8870900441206342</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1520</v>
@@ -7582,19 +7582,19 @@
         <v>1124468</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1107552</v>
+        <v>1109219</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1137832</v>
+        <v>1137516</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9254248071094202</v>
+        <v>0.92542480710942</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9115029025634696</v>
+        <v>0.9128752206597227</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9364228864892804</v>
+        <v>0.9361631922090133</v>
       </c>
     </row>
     <row r="18">
@@ -7686,19 +7686,19 @@
         <v>9362</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4986</v>
+        <v>5091</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15497</v>
+        <v>15430</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02299781452310376</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01224860173609263</v>
+        <v>0.01250720379675114</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03806977808029656</v>
+        <v>0.03790452910008135</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>101</v>
@@ -7707,19 +7707,19 @@
         <v>54470</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>44384</v>
+        <v>45364</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>65002</v>
+        <v>65227</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1241385108415374</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1011520086628502</v>
+        <v>0.1033857342630827</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1481408062038629</v>
+        <v>0.1486532959821117</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>114</v>
@@ -7728,19 +7728,19 @@
         <v>63832</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>52574</v>
+        <v>53554</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>75373</v>
+        <v>75757</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07546381412362786</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06215455104523568</v>
+        <v>0.06331196488382584</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08910797368983263</v>
+        <v>0.08956187994329673</v>
       </c>
     </row>
     <row r="20">
@@ -7757,19 +7757,19 @@
         <v>397718</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>391583</v>
+        <v>391650</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>402094</v>
+        <v>401989</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9770021854768961</v>
+        <v>0.9770021854768962</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9619302219197037</v>
+        <v>0.9620954708999188</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9877513982639075</v>
+        <v>0.9874927962032489</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>725</v>
@@ -7778,19 +7778,19 @@
         <v>384317</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>373785</v>
+        <v>373560</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>394403</v>
+        <v>393423</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8758614891584625</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8518591937961377</v>
+        <v>0.8513467040178886</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8988479913371499</v>
+        <v>0.8966142657369175</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1282</v>
@@ -7799,19 +7799,19 @@
         <v>782035</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>770494</v>
+        <v>770110</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>793293</v>
+        <v>792313</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9245361858763722</v>
+        <v>0.9245361858763721</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9108920263101672</v>
+        <v>0.9104381200567033</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9378454489547642</v>
+        <v>0.9366880351161738</v>
       </c>
     </row>
     <row r="21">
@@ -7903,19 +7903,19 @@
         <v>6816</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3564</v>
+        <v>3512</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12191</v>
+        <v>12573</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02197323727936184</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01148920290262858</v>
+        <v>0.01132135957068254</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03929958701468264</v>
+        <v>0.0405311021831242</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>83</v>
@@ -7924,19 +7924,19 @@
         <v>45288</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35713</v>
+        <v>36625</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>55078</v>
+        <v>55816</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.09772805331098426</v>
+        <v>0.09772805331098428</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07706521364497618</v>
+        <v>0.07903427904255531</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.11885304871061</v>
+        <v>0.1204464527816696</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>93</v>
@@ -7945,19 +7945,19 @@
         <v>52104</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42330</v>
+        <v>42606</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>64727</v>
+        <v>64504</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06735218332631884</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05471788656531981</v>
+        <v>0.05507416237984554</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08366951564829543</v>
+        <v>0.08338124383745817</v>
       </c>
     </row>
     <row r="23">
@@ -7974,19 +7974,19 @@
         <v>303382</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>298007</v>
+        <v>297625</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>306634</v>
+        <v>306686</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9780267627206378</v>
+        <v>0.978026762720638</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9607004129853173</v>
+        <v>0.9594688978168757</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9885107970973714</v>
+        <v>0.9886786404293174</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>796</v>
@@ -7995,19 +7995,19 @@
         <v>418122</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>408332</v>
+        <v>407594</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>427697</v>
+        <v>426785</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9022719466890158</v>
+        <v>0.9022719466890159</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.88114695128939</v>
+        <v>0.8795535472183303</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9229347863550239</v>
+        <v>0.9209657209574444</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1244</v>
@@ -8016,19 +8016,19 @@
         <v>721504</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>708881</v>
+        <v>709104</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>731278</v>
+        <v>731002</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9326478166736811</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9163304843517043</v>
+        <v>0.916618756162542</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9452821134346802</v>
+        <v>0.9449258376201543</v>
       </c>
     </row>
     <row r="24">
@@ -8120,19 +8120,19 @@
         <v>47404</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33518</v>
+        <v>34791</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63066</v>
+        <v>62988</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01342203222106385</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009490426092679763</v>
+        <v>0.009850761454614766</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01785674746800205</v>
+        <v>0.0178347658486354</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>488</v>
@@ -8141,19 +8141,19 @@
         <v>311059</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>282275</v>
+        <v>284212</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>337993</v>
+        <v>340948</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.08335939018949527</v>
+        <v>0.08335939018949524</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07564579918247535</v>
+        <v>0.07616482588294896</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09057722051449342</v>
+        <v>0.09136920961432299</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>539</v>
@@ -8162,19 +8162,19 @@
         <v>358463</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>327452</v>
+        <v>327997</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>392675</v>
+        <v>394749</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04935247601522098</v>
+        <v>0.049352476015221</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04508302511540447</v>
+        <v>0.04515796549293816</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05406271006467305</v>
+        <v>0.05434837223615735</v>
       </c>
     </row>
     <row r="26">
@@ -8191,19 +8191,19 @@
         <v>3484371</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3468709</v>
+        <v>3468787</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3498257</v>
+        <v>3496984</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9865779677789362</v>
+        <v>0.9865779677789361</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.982143252531998</v>
+        <v>0.9821652341513647</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9905095739073201</v>
+        <v>0.9901492385453852</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4870</v>
@@ -8212,19 +8212,19 @@
         <v>3420483</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3393549</v>
+        <v>3390594</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3449267</v>
+        <v>3447330</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9166406098105049</v>
+        <v>0.9166406098105047</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9094227794855068</v>
+        <v>0.9086307903856772</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9243542008175248</v>
+        <v>0.9238351741170513</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8194</v>
@@ -8233,19 +8233,19 @@
         <v>6904853</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6870641</v>
+        <v>6868567</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6935864</v>
+        <v>6935319</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.950647523984779</v>
+        <v>0.9506475239847789</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9459372899353269</v>
+        <v>0.9456516277638424</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9549169748845956</v>
+        <v>0.9548420345070617</v>
       </c>
     </row>
     <row r="27">
